--- a/4.SUBMIT_PLACE/4.5 MINH_DOAN/TEST/BSS_TestCases_ManageBanners.xlsx
+++ b/4.SUBMIT_PLACE/4.5 MINH_DOAN/TEST/BSS_TestCases_ManageBanners.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="4" r:id="rId1"/>
@@ -1315,7 +1315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1727,12 +1727,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1968,9 +1981,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1992,12 +2002,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2019,6 +2023,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2133,68 +2152,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2501,7 +2523,7 @@
   <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2515,12 +2537,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
@@ -2528,10 +2550,10 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="99"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="101"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -2604,10 +2626,10 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="100"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2637,8 +2659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E6"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2660,59 +2682,59 @@
       <c r="B2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
     </row>
     <row r="10" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
@@ -2740,7 +2762,7 @@
       <c r="A12" s="23">
         <v>1</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="105" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="22" t="s">
@@ -2757,7 +2779,7 @@
       <c r="A13" s="31">
         <v>2</v>
       </c>
-      <c r="B13" s="104"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="30" t="s">
         <v>43</v>
       </c>
@@ -2772,7 +2794,7 @@
       <c r="A14" s="31">
         <v>3</v>
       </c>
-      <c r="B14" s="104"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="30" t="s">
         <v>44</v>
       </c>
@@ -2787,7 +2809,7 @@
       <c r="A15" s="31">
         <v>4</v>
       </c>
-      <c r="B15" s="104"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="30" t="s">
         <v>53</v>
       </c>
@@ -2802,7 +2824,7 @@
       <c r="A16" s="31">
         <v>5</v>
       </c>
-      <c r="B16" s="104"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="30" t="s">
         <v>54</v>
       </c>
@@ -2817,7 +2839,7 @@
       <c r="A17" s="31">
         <v>6</v>
       </c>
-      <c r="B17" s="104"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="30" t="s">
         <v>62</v>
       </c>
@@ -2828,16 +2850,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="18" t="s">
+    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="28" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2845,31 +2867,31 @@
       <c r="A19" s="19">
         <v>7</v>
       </c>
-      <c r="B19" s="105"/>
+      <c r="B19" s="107"/>
       <c r="C19" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="16" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="87">
+      <c r="A20" s="152">
         <v>8</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="153" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="88" t="s">
+      <c r="C20" s="154" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="155" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="156" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2877,7 +2899,7 @@
       <c r="A21" s="23">
         <v>9</v>
       </c>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="105" t="s">
         <v>101</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -2894,7 +2916,7 @@
       <c r="A22" s="31">
         <v>10</v>
       </c>
-      <c r="B22" s="104"/>
+      <c r="B22" s="106"/>
       <c r="C22" s="30" t="s">
         <v>104</v>
       </c>
@@ -2909,7 +2931,7 @@
       <c r="A23" s="31">
         <v>11</v>
       </c>
-      <c r="B23" s="104"/>
+      <c r="B23" s="106"/>
       <c r="C23" s="30" t="s">
         <v>107</v>
       </c>
@@ -2924,7 +2946,7 @@
       <c r="A24" s="27">
         <v>12</v>
       </c>
-      <c r="B24" s="107"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="26" t="s">
         <v>108</v>
       </c>
@@ -2939,7 +2961,7 @@
       <c r="A25" s="23">
         <v>13</v>
       </c>
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="105" t="s">
         <v>129</v>
       </c>
       <c r="C25" s="22" t="s">
@@ -2956,7 +2978,7 @@
       <c r="A26" s="31">
         <v>14</v>
       </c>
-      <c r="B26" s="104"/>
+      <c r="B26" s="106"/>
       <c r="C26" s="30" t="s">
         <v>131</v>
       </c>
@@ -2971,7 +2993,7 @@
       <c r="A27" s="31">
         <v>15</v>
       </c>
-      <c r="B27" s="104"/>
+      <c r="B27" s="106"/>
       <c r="C27" s="30" t="s">
         <v>132</v>
       </c>
@@ -2986,7 +3008,7 @@
       <c r="A28" s="31">
         <v>16</v>
       </c>
-      <c r="B28" s="104"/>
+      <c r="B28" s="106"/>
       <c r="C28" s="30" t="s">
         <v>133</v>
       </c>
@@ -3001,7 +3023,7 @@
       <c r="A29" s="31">
         <v>17</v>
       </c>
-      <c r="B29" s="104"/>
+      <c r="B29" s="106"/>
       <c r="C29" s="30" t="s">
         <v>134</v>
       </c>
@@ -3016,7 +3038,7 @@
       <c r="A30" s="31">
         <v>18</v>
       </c>
-      <c r="B30" s="104"/>
+      <c r="B30" s="106"/>
       <c r="C30" s="30" t="s">
         <v>135</v>
       </c>
@@ -3031,7 +3053,7 @@
       <c r="A31" s="27">
         <v>19</v>
       </c>
-      <c r="B31" s="107"/>
+      <c r="B31" s="109"/>
       <c r="C31" s="26" t="s">
         <v>136</v>
       </c>
@@ -3046,7 +3068,7 @@
       <c r="A32" s="23">
         <v>20</v>
       </c>
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="105" t="s">
         <v>175</v>
       </c>
       <c r="C32" s="22" t="s">
@@ -3063,7 +3085,7 @@
       <c r="A33" s="31">
         <v>21</v>
       </c>
-      <c r="B33" s="104"/>
+      <c r="B33" s="106"/>
       <c r="C33" s="30" t="s">
         <v>177</v>
       </c>
@@ -3078,7 +3100,7 @@
       <c r="A34" s="27">
         <v>22</v>
       </c>
-      <c r="B34" s="107"/>
+      <c r="B34" s="109"/>
       <c r="C34" s="26" t="s">
         <v>182</v>
       </c>
@@ -3093,7 +3115,7 @@
       <c r="A35" s="23">
         <v>23</v>
       </c>
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="105" t="s">
         <v>196</v>
       </c>
       <c r="C35" s="22" t="s">
@@ -3110,7 +3132,7 @@
       <c r="A36" s="31">
         <v>24</v>
       </c>
-      <c r="B36" s="104"/>
+      <c r="B36" s="106"/>
       <c r="C36" s="30" t="s">
         <v>198</v>
       </c>
@@ -3125,7 +3147,7 @@
       <c r="A37" s="19">
         <v>25</v>
       </c>
-      <c r="B37" s="105"/>
+      <c r="B37" s="107"/>
       <c r="C37" s="18" t="s">
         <v>199</v>
       </c>
@@ -3137,163 +3159,163 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="80"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="77"/>
-      <c r="C38" s="91"/>
+      <c r="C38" s="88"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="80"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="77"/>
-      <c r="C39" s="91"/>
+      <c r="C39" s="88"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="80"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="77"/>
-      <c r="C40" s="91"/>
+      <c r="C40" s="88"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="80"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="77"/>
-      <c r="C41" s="91"/>
+      <c r="C41" s="88"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="80"/>
+      <c r="A42" s="79"/>
       <c r="B42" s="77"/>
-      <c r="C42" s="91"/>
+      <c r="C42" s="88"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="80"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="77"/>
-      <c r="C43" s="91"/>
+      <c r="C43" s="88"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="80"/>
+      <c r="A44" s="79"/>
       <c r="B44" s="77"/>
-      <c r="C44" s="91"/>
+      <c r="C44" s="88"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="80"/>
+      <c r="A45" s="79"/>
       <c r="B45" s="77"/>
-      <c r="C45" s="91"/>
+      <c r="C45" s="88"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="80"/>
+      <c r="A46" s="79"/>
       <c r="B46" s="77"/>
-      <c r="C46" s="91"/>
+      <c r="C46" s="88"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="80"/>
+      <c r="A47" s="79"/>
       <c r="B47" s="77"/>
-      <c r="C47" s="91"/>
+      <c r="C47" s="88"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="80"/>
+      <c r="A48" s="79"/>
       <c r="B48" s="77"/>
-      <c r="C48" s="91"/>
+      <c r="C48" s="88"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="80"/>
+      <c r="A49" s="79"/>
       <c r="B49" s="77"/>
-      <c r="C49" s="91"/>
+      <c r="C49" s="88"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="80"/>
+      <c r="A50" s="79"/>
       <c r="B50" s="77"/>
-      <c r="C50" s="91"/>
+      <c r="C50" s="88"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="80"/>
+      <c r="A51" s="79"/>
       <c r="B51" s="77"/>
-      <c r="C51" s="91"/>
+      <c r="C51" s="88"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="80"/>
+      <c r="A52" s="79"/>
       <c r="B52" s="77"/>
-      <c r="C52" s="91"/>
+      <c r="C52" s="88"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="80"/>
+      <c r="A53" s="79"/>
       <c r="B53" s="77"/>
-      <c r="C53" s="91"/>
+      <c r="C53" s="88"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="80"/>
+      <c r="A54" s="79"/>
       <c r="B54" s="77"/>
-      <c r="C54" s="91"/>
+      <c r="C54" s="88"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="80"/>
+      <c r="A55" s="79"/>
       <c r="B55" s="77"/>
-      <c r="C55" s="91"/>
+      <c r="C55" s="88"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
     </row>
     <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="80"/>
+      <c r="A56" s="79"/>
       <c r="B56" s="77"/>
-      <c r="C56" s="91"/>
+      <c r="C56" s="88"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="80"/>
+      <c r="A57" s="79"/>
       <c r="B57" s="77"/>
-      <c r="C57" s="91"/>
+      <c r="C57" s="88"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
     </row>
     <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="80"/>
+      <c r="A58" s="79"/>
       <c r="B58" s="77"/>
-      <c r="C58" s="91"/>
+      <c r="C58" s="88"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
     </row>
     <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="80"/>
+      <c r="A59" s="79"/>
       <c r="B59" s="77"/>
-      <c r="C59" s="91"/>
+      <c r="C59" s="88"/>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
     </row>
     <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="80"/>
+      <c r="A60" s="79"/>
       <c r="B60" s="77"/>
-      <c r="C60" s="91"/>
+      <c r="C60" s="88"/>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
     </row>
@@ -3336,10 +3358,10 @@
     <hyperlink ref="C31" location="'Edit Banner'!A9" display="TC-VLA-EditBn-007"/>
     <hyperlink ref="C33" location="'Delete Banner'!A5" display="TC-VLA-DelBn-002"/>
     <hyperlink ref="C34" location="'Delete Banner'!A7" display="TC-VLA-DelBn-003"/>
-    <hyperlink ref="C35" location="'Delete Banner'!A3" display="TC-VLA-DelBn-001"/>
-    <hyperlink ref="C36" location="'Delete Banner'!A5" display="TC-VLA-DelBn-002"/>
-    <hyperlink ref="C37" location="'Delete Banner'!A7" display="TC-VLA-DelBn-003"/>
-    <hyperlink ref="C19" location="'Create Banner'!A9" display="TC-VLA-CreateBn-007"/>
+    <hyperlink ref="C35" location="'Arrange Image'!A3" display="TC-VLA-AIBn-001"/>
+    <hyperlink ref="C36" location="'Arrange Image'!A5" display="TC-VLA-AIBn-002"/>
+    <hyperlink ref="C37" location="'Arrange Image'!A7" display="TC-VLA-AIBn-003"/>
+    <hyperlink ref="C19" location="'Create Banner'!A10" display="TC-VLA-CreateBn-008"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3351,10 +3373,10 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3546,7 +3568,7 @@
       <c r="M6" s="62"/>
     </row>
     <row r="7" spans="1:13" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="92">
+      <c r="A7" s="89">
         <v>5</v>
       </c>
       <c r="B7" s="70" t="s">
@@ -3577,7 +3599,7 @@
       <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="92">
+      <c r="A8" s="89">
         <v>6</v>
       </c>
       <c r="B8" s="70" t="s">
@@ -3637,7 +3659,7 @@
       <c r="M9" s="62"/>
     </row>
     <row r="10" spans="1:13" ht="141" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64">
+      <c r="A10" s="157">
         <v>8</v>
       </c>
       <c r="B10" s="61" t="s">
@@ -3784,10 +3806,10 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
     </row>
     <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
@@ -3799,10 +3821,10 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
     </row>
     <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
@@ -3814,10 +3836,10 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
@@ -3829,10 +3851,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
@@ -3844,10 +3866,10 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
@@ -3859,10 +3881,10 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
@@ -3874,10 +3896,10 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="108"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
     </row>
     <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
@@ -3889,10 +3911,10 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
     </row>
     <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
@@ -3904,10 +3926,10 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="108"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
     </row>
     <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
@@ -3919,10 +3941,10 @@
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
     </row>
     <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
@@ -3934,10 +3956,10 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="110"/>
     </row>
     <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
@@ -3949,10 +3971,10 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
     </row>
     <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
@@ -3964,10 +3986,10 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
     </row>
     <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
@@ -3979,10 +4001,10 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="108"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
@@ -3994,10 +4016,10 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="108"/>
-      <c r="M34" s="108"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="110"/>
     </row>
     <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
@@ -4009,10 +4031,10 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="108"/>
-      <c r="M35" s="108"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="110"/>
     </row>
     <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
@@ -4024,10 +4046,10 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="108"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="108"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="110"/>
     </row>
     <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
@@ -4039,10 +4061,10 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="108"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="108"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="110"/>
     </row>
     <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
@@ -4054,10 +4076,10 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="108"/>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="110"/>
     </row>
     <row r="39" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
@@ -4069,10 +4091,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="108"/>
-      <c r="K39" s="108"/>
-      <c r="L39" s="108"/>
-      <c r="M39" s="108"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="110"/>
+      <c r="M39" s="110"/>
     </row>
     <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
@@ -4084,10 +4106,10 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="108"/>
-      <c r="M40" s="108"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="110"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
@@ -4099,10 +4121,10 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="108"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="110"/>
+      <c r="M41" s="110"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
@@ -4114,10 +4136,10 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="108"/>
-      <c r="L42" s="108"/>
-      <c r="M42" s="108"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="110"/>
+      <c r="L42" s="110"/>
+      <c r="M42" s="110"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
@@ -4129,10 +4151,10 @@
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="108"/>
-      <c r="M43" s="108"/>
+      <c r="J43" s="110"/>
+      <c r="K43" s="110"/>
+      <c r="L43" s="110"/>
+      <c r="M43" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -4300,7 +4322,7 @@
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
-      <c r="F4" s="86"/>
+      <c r="F4" s="85"/>
       <c r="G4" s="14"/>
       <c r="H4" s="40"/>
       <c r="I4" s="14"/>
@@ -4567,10 +4589,10 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
@@ -4582,10 +4604,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
@@ -4597,10 +4619,10 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
@@ -4612,10 +4634,10 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
@@ -4627,10 +4649,10 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="108"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
     </row>
     <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
@@ -4642,10 +4664,10 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
     </row>
     <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
@@ -4657,10 +4679,10 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="108"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
     </row>
     <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
@@ -4672,10 +4694,10 @@
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
     </row>
     <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
@@ -4687,10 +4709,10 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="110"/>
     </row>
     <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
@@ -4702,10 +4724,10 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
     </row>
     <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
@@ -4717,10 +4739,10 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
     </row>
     <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
@@ -4732,10 +4754,10 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="108"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
@@ -4747,10 +4769,10 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="108"/>
-      <c r="M34" s="108"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="110"/>
     </row>
     <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
@@ -4762,10 +4784,10 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="108"/>
-      <c r="M35" s="108"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="110"/>
     </row>
     <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
@@ -4777,10 +4799,10 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="108"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="108"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="110"/>
     </row>
     <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
@@ -4792,10 +4814,10 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="108"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="108"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="110"/>
     </row>
     <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
@@ -4807,10 +4829,10 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="108"/>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="110"/>
     </row>
     <row r="39" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
@@ -4822,10 +4844,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="108"/>
-      <c r="K39" s="108"/>
-      <c r="L39" s="108"/>
-      <c r="M39" s="108"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="110"/>
+      <c r="M39" s="110"/>
     </row>
     <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
@@ -4837,10 +4859,10 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="108"/>
-      <c r="M40" s="108"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="110"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
@@ -4852,10 +4874,10 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="108"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="110"/>
+      <c r="M41" s="110"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
@@ -4867,10 +4889,10 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="108"/>
-      <c r="L42" s="108"/>
-      <c r="M42" s="108"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="110"/>
+      <c r="L42" s="110"/>
+      <c r="M42" s="110"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
@@ -4882,10 +4904,10 @@
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="108"/>
-      <c r="M43" s="108"/>
+      <c r="J43" s="110"/>
+      <c r="K43" s="110"/>
+      <c r="L43" s="110"/>
+      <c r="M43" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -5015,19 +5037,19 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="113">
+      <c r="A3" s="115">
         <v>1</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="117" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="117"/>
+      <c r="E3" s="119"/>
       <c r="F3" s="44">
         <v>1</v>
       </c>
@@ -5038,17 +5060,17 @@
         <v>119</v>
       </c>
       <c r="I3" s="21"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="113"/>
     </row>
     <row r="4" spans="1:13" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="114"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
+      <c r="A4" s="116"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
       <c r="F4" s="46">
         <v>2</v>
       </c>
@@ -5059,10 +5081,10 @@
         <v>121</v>
       </c>
       <c r="I4" s="25"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="114"/>
     </row>
     <row r="5" spans="1:13" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43">
@@ -5094,20 +5116,20 @@
       <c r="M5" s="62"/>
     </row>
     <row r="6" spans="1:13" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="113">
+      <c r="A6" s="115">
         <v>3</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="119" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="117" t="s">
+      <c r="D6" s="119" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="117"/>
-      <c r="F6" s="83">
+      <c r="E6" s="119"/>
+      <c r="F6" s="82">
         <v>1</v>
       </c>
       <c r="G6" s="21" t="s">
@@ -5117,18 +5139,18 @@
         <v>119</v>
       </c>
       <c r="I6" s="21"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="113"/>
     </row>
     <row r="7" spans="1:13" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="114"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="81">
+      <c r="A7" s="116"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="80">
         <v>2</v>
       </c>
       <c r="G7" s="25" t="s">
@@ -5138,10 +5160,10 @@
         <v>121</v>
       </c>
       <c r="I7" s="25"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="114"/>
     </row>
     <row r="8" spans="1:13" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="67">
@@ -5153,7 +5175,7 @@
       <c r="C8" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="86" t="s">
         <v>127</v>
       </c>
       <c r="E8" s="60"/>
@@ -5178,7 +5200,7 @@
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
-      <c r="F9" s="80"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -5193,7 +5215,7 @@
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
-      <c r="F10" s="80"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="14"/>
       <c r="H10" s="40"/>
       <c r="I10" s="14"/>
@@ -5208,7 +5230,7 @@
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
-      <c r="F11" s="80"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -5223,7 +5245,7 @@
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
-      <c r="F12" s="80"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="14"/>
       <c r="H12" s="40"/>
       <c r="I12" s="14"/>
@@ -5238,7 +5260,7 @@
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
-      <c r="F13" s="80"/>
+      <c r="F13" s="79"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -5253,7 +5275,7 @@
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
-      <c r="F14" s="80"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="14"/>
       <c r="H14" s="40"/>
       <c r="I14" s="14"/>
@@ -5268,7 +5290,7 @@
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
-      <c r="F15" s="80"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -5283,7 +5305,7 @@
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="80"/>
+      <c r="F16" s="79"/>
       <c r="G16" s="14"/>
       <c r="H16" s="40"/>
       <c r="I16" s="14"/>
@@ -5298,7 +5320,7 @@
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="39"/>
-      <c r="F17" s="80"/>
+      <c r="F17" s="79"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -5313,7 +5335,7 @@
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="39"/>
-      <c r="F18" s="80"/>
+      <c r="F18" s="79"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -5328,7 +5350,7 @@
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="80"/>
+      <c r="F19" s="79"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -5343,7 +5365,7 @@
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="80"/>
+      <c r="F20" s="79"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -5370,10 +5392,10 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
@@ -5385,10 +5407,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
@@ -5400,10 +5422,10 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
@@ -5415,10 +5437,10 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
@@ -5430,10 +5452,10 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="108"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
     </row>
     <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
@@ -5445,10 +5467,10 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
     </row>
     <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
@@ -5460,10 +5482,10 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="108"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
     </row>
     <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
@@ -5475,10 +5497,10 @@
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
     </row>
     <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
@@ -5490,10 +5512,10 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="110"/>
     </row>
     <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
@@ -5505,10 +5527,10 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
     </row>
     <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
@@ -5520,10 +5542,10 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
     </row>
     <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
@@ -5535,10 +5557,10 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="108"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
@@ -5550,10 +5572,10 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="108"/>
-      <c r="M34" s="108"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="110"/>
     </row>
     <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
@@ -5565,10 +5587,10 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="108"/>
-      <c r="M35" s="108"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="110"/>
     </row>
     <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
@@ -5580,10 +5602,10 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="108"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="108"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="110"/>
     </row>
     <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
@@ -5595,10 +5617,10 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="108"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="108"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="110"/>
     </row>
     <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
@@ -5610,10 +5632,10 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="108"/>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="110"/>
     </row>
     <row r="39" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
@@ -5625,10 +5647,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="108"/>
-      <c r="K39" s="108"/>
-      <c r="L39" s="108"/>
-      <c r="M39" s="108"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="110"/>
+      <c r="M39" s="110"/>
     </row>
     <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
@@ -5640,10 +5662,10 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="108"/>
-      <c r="M40" s="108"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="110"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
@@ -5655,10 +5677,10 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="108"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="110"/>
+      <c r="M41" s="110"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
@@ -5670,10 +5692,10 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="108"/>
-      <c r="L42" s="108"/>
-      <c r="M42" s="108"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="110"/>
+      <c r="L42" s="110"/>
+      <c r="M42" s="110"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
@@ -5685,10 +5707,10 @@
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="108"/>
-      <c r="M43" s="108"/>
+      <c r="J43" s="110"/>
+      <c r="K43" s="110"/>
+      <c r="L43" s="110"/>
+      <c r="M43" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="62">
@@ -5698,6 +5720,10 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="L24:L25"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="K32:K33"/>
@@ -5710,18 +5736,14 @@
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="M30:M31"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
     <mergeCell ref="J34:J35"/>
     <mergeCell ref="K34:K35"/>
     <mergeCell ref="L34:L35"/>
     <mergeCell ref="M34:M35"/>
     <mergeCell ref="J36:J37"/>
     <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="K22:K23"/>
@@ -5975,7 +5997,7 @@
       <c r="E7" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="F7" s="82">
+      <c r="F7" s="81">
         <v>1</v>
       </c>
       <c r="G7" s="69" t="s">
@@ -6006,7 +6028,7 @@
       <c r="E8" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="81">
         <v>1</v>
       </c>
       <c r="G8" s="69" t="s">
@@ -6210,10 +6232,10 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
     </row>
     <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
@@ -6225,10 +6247,10 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
     </row>
     <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
@@ -6240,10 +6262,10 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
@@ -6255,10 +6277,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
@@ -6270,10 +6292,10 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
@@ -6285,10 +6307,10 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
@@ -6300,10 +6322,10 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="108"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
     </row>
     <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
@@ -6315,10 +6337,10 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
     </row>
     <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
@@ -6330,10 +6352,10 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="108"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
     </row>
     <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
@@ -6345,10 +6367,10 @@
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
     </row>
     <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
@@ -6360,10 +6382,10 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="110"/>
     </row>
     <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
@@ -6375,10 +6397,10 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
     </row>
     <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
@@ -6390,10 +6412,10 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
     </row>
     <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
@@ -6405,10 +6427,10 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="108"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
@@ -6420,10 +6442,10 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="108"/>
-      <c r="M34" s="108"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="110"/>
     </row>
     <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
@@ -6435,10 +6457,10 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="108"/>
-      <c r="M35" s="108"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="110"/>
     </row>
     <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
@@ -6450,10 +6472,10 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="108"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="108"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="110"/>
     </row>
     <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
@@ -6465,10 +6487,10 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="108"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="108"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="110"/>
     </row>
     <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
@@ -6480,10 +6502,10 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="108"/>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="110"/>
     </row>
     <row r="39" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
@@ -6495,10 +6517,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="108"/>
-      <c r="K39" s="108"/>
-      <c r="L39" s="108"/>
-      <c r="M39" s="108"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="110"/>
+      <c r="M39" s="110"/>
     </row>
     <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
@@ -6510,10 +6532,10 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="108"/>
-      <c r="M40" s="108"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="110"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
@@ -6525,10 +6547,10 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="108"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="110"/>
+      <c r="M41" s="110"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
@@ -6540,10 +6562,10 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="108"/>
-      <c r="L42" s="108"/>
-      <c r="M42" s="108"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="110"/>
+      <c r="L42" s="110"/>
+      <c r="M42" s="110"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
@@ -6555,10 +6577,10 @@
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="108"/>
-      <c r="M43" s="108"/>
+      <c r="J43" s="110"/>
+      <c r="K43" s="110"/>
+      <c r="L43" s="110"/>
+      <c r="M43" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -6624,7 +6646,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6692,19 +6714,19 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="113">
+      <c r="A3" s="115">
         <v>1</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="121" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="121" t="s">
         <v>187</v>
       </c>
-      <c r="E3" s="121"/>
+      <c r="E3" s="123"/>
       <c r="F3" s="44">
         <v>1</v>
       </c>
@@ -6715,17 +6737,17 @@
         <v>193</v>
       </c>
       <c r="I3" s="21"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="113"/>
     </row>
     <row r="4" spans="1:13" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="114"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="122"/>
+      <c r="A4" s="116"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="124"/>
       <c r="F4" s="46">
         <v>2</v>
       </c>
@@ -6736,32 +6758,32 @@
         <v>194</v>
       </c>
       <c r="I4" s="25"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="114"/>
     </row>
     <row r="5" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="127">
+      <c r="A5" s="129">
         <v>2</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="131" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="125" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="83">
+      <c r="E5" s="125"/>
+      <c r="F5" s="82">
         <v>1</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="90" t="s">
+      <c r="H5" s="87" t="s">
         <v>193</v>
       </c>
       <c r="I5" s="21"/>
@@ -6771,12 +6793,12 @@
       <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:13" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="128"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="84"/>
+      <c r="A6" s="130"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="25" t="s">
         <v>39</v>
       </c>
@@ -6790,20 +6812,20 @@
       <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="127">
+      <c r="A7" s="129">
         <v>3</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="131" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="125" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="123"/>
-      <c r="F7" s="83">
+      <c r="E7" s="125"/>
+      <c r="F7" s="82">
         <v>1</v>
       </c>
       <c r="G7" s="21" t="s">
@@ -6813,18 +6835,18 @@
         <v>193</v>
       </c>
       <c r="I7" s="21"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="113"/>
     </row>
     <row r="8" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="131"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="85"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="17" t="s">
         <v>37</v>
       </c>
@@ -6832,10 +6854,10 @@
         <v>195</v>
       </c>
       <c r="I8" s="17"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="133"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="135"/>
     </row>
     <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A9" s="64"/>
@@ -6843,7 +6865,7 @@
       <c r="C9" s="65"/>
       <c r="D9" s="65"/>
       <c r="E9" s="65"/>
-      <c r="F9" s="80"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -7035,10 +7057,10 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="64"/>
@@ -7050,10 +7072,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="64"/>
@@ -7065,10 +7087,10 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="64"/>
@@ -7080,10 +7102,10 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="64"/>
@@ -7095,10 +7117,10 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="108"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
     </row>
     <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="64"/>
@@ -7110,10 +7132,10 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
     </row>
     <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="64"/>
@@ -7125,10 +7147,10 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="108"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
     </row>
     <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="64"/>
@@ -7140,10 +7162,10 @@
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
     </row>
     <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="64"/>
@@ -7155,10 +7177,10 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="110"/>
     </row>
     <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="64"/>
@@ -7170,10 +7192,10 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
     </row>
     <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="64"/>
@@ -7185,10 +7207,10 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
     </row>
     <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="64"/>
@@ -7200,10 +7222,10 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="108"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="64"/>
@@ -7215,10 +7237,10 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="108"/>
-      <c r="M34" s="108"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="110"/>
     </row>
     <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="64"/>
@@ -7230,10 +7252,10 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="108"/>
-      <c r="M35" s="108"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="110"/>
     </row>
     <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="64"/>
@@ -7245,10 +7267,10 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="108"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="108"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="110"/>
     </row>
     <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="64"/>
@@ -7260,10 +7282,10 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="108"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="108"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="110"/>
     </row>
     <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="64"/>
@@ -7275,10 +7297,10 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="108"/>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="110"/>
     </row>
     <row r="39" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="64"/>
@@ -7290,10 +7312,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="108"/>
-      <c r="K39" s="108"/>
-      <c r="L39" s="108"/>
-      <c r="M39" s="108"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="110"/>
+      <c r="M39" s="110"/>
     </row>
     <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="64"/>
@@ -7305,10 +7327,10 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="108"/>
-      <c r="M40" s="108"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="110"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="64"/>
@@ -7320,10 +7342,10 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="108"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="110"/>
+      <c r="M41" s="110"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A42" s="64"/>
@@ -7335,10 +7357,10 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="108"/>
-      <c r="L42" s="108"/>
-      <c r="M42" s="108"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="110"/>
+      <c r="L42" s="110"/>
+      <c r="M42" s="110"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A43" s="64"/>
@@ -7350,10 +7372,10 @@
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="108"/>
-      <c r="M43" s="108"/>
+      <c r="J43" s="110"/>
+      <c r="K43" s="110"/>
+      <c r="L43" s="110"/>
+      <c r="M43" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="67">
@@ -7434,11 +7456,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5:E6"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7477,10 +7499,10 @@
       <c r="D2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="93" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="33" t="s">
@@ -7506,41 +7528,41 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="113">
+      <c r="A3" s="115">
         <v>1</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="117" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="123" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="119" t="s">
         <v>211</v>
       </c>
-      <c r="E3" s="117"/>
-      <c r="F3" s="93">
+      <c r="E3" s="119"/>
+      <c r="F3" s="90">
         <v>1</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="H3" s="135" t="s">
+      <c r="H3" s="94" t="s">
         <v>214</v>
       </c>
       <c r="I3" s="21"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="113"/>
     </row>
     <row r="4" spans="1:13" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="114"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="94">
+      <c r="A4" s="116"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="91">
         <v>2</v>
       </c>
       <c r="G4" s="25" t="s">
@@ -7550,47 +7572,47 @@
         <v>216</v>
       </c>
       <c r="I4" s="25"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="114"/>
     </row>
     <row r="5" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="127">
+      <c r="A5" s="129">
         <v>2</v>
       </c>
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="136" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="125" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="138" t="s">
         <v>212</v>
       </c>
-      <c r="E5" s="136"/>
-      <c r="F5" s="93">
+      <c r="E5" s="138"/>
+      <c r="F5" s="90">
         <v>1</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="H5" s="135" t="s">
+      <c r="H5" s="94" t="s">
         <v>214</v>
       </c>
       <c r="I5" s="21"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="139"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="140"/>
     </row>
     <row r="6" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="128"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="94">
+      <c r="A6" s="130"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="91">
         <v>2</v>
       </c>
       <c r="G6" s="25" t="s">
@@ -7599,48 +7621,48 @@
       <c r="H6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="144"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="130"/>
-      <c r="M6" s="145"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="141"/>
     </row>
     <row r="7" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="146">
+      <c r="A7" s="142">
         <v>3</v>
       </c>
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="136" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="125" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="117" t="s">
+      <c r="D7" s="119" t="s">
         <v>211</v>
       </c>
-      <c r="E7" s="147"/>
-      <c r="F7" s="93">
+      <c r="E7" s="145"/>
+      <c r="F7" s="90">
         <v>1</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="H7" s="135" t="s">
+      <c r="H7" s="94" t="s">
         <v>214</v>
       </c>
-      <c r="I7" s="148"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="149"/>
-      <c r="L7" s="149"/>
-      <c r="M7" s="150"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="149"/>
     </row>
     <row r="8" spans="1:13" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="151"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="95">
+      <c r="A8" s="143"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="92">
         <v>2</v>
       </c>
       <c r="G8" s="17" t="s">
@@ -7649,11 +7671,11 @@
       <c r="H8" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="I8" s="141"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="153"/>
-      <c r="M8" s="154"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="150"/>
     </row>
     <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
@@ -7845,10 +7867,10 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
     </row>
     <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
@@ -7860,10 +7882,10 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
@@ -7875,10 +7897,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
@@ -7890,10 +7912,10 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
@@ -7905,10 +7927,10 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
@@ -7920,10 +7942,10 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="108"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
     </row>
     <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
@@ -7935,10 +7957,10 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
     </row>
     <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
@@ -7950,10 +7972,10 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="108"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
     </row>
     <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
@@ -7965,10 +7987,10 @@
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
     </row>
     <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
@@ -7980,10 +8002,10 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="110"/>
     </row>
     <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
@@ -7995,10 +8017,10 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
     </row>
     <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
@@ -8010,10 +8032,10 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
     </row>
     <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
@@ -8025,10 +8047,10 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="108"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
@@ -8040,10 +8062,10 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="108"/>
-      <c r="M34" s="108"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="110"/>
     </row>
     <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
@@ -8055,10 +8077,10 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="108"/>
-      <c r="M35" s="108"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="110"/>
     </row>
     <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
@@ -8070,10 +8092,10 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="108"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="108"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="110"/>
     </row>
     <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
@@ -8085,10 +8107,10 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="108"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="108"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="110"/>
     </row>
     <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
@@ -8100,10 +8122,10 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="108"/>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="110"/>
     </row>
     <row r="39" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
@@ -8115,10 +8137,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="108"/>
-      <c r="K39" s="108"/>
-      <c r="L39" s="108"/>
-      <c r="M39" s="108"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="110"/>
+      <c r="M39" s="110"/>
     </row>
     <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
@@ -8130,10 +8152,10 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="108"/>
-      <c r="M40" s="108"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="110"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
@@ -8145,10 +8167,10 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="108"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="110"/>
+      <c r="M41" s="110"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
@@ -8160,10 +8182,10 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="108"/>
-      <c r="L42" s="108"/>
-      <c r="M42" s="108"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="110"/>
+      <c r="L42" s="110"/>
+      <c r="M42" s="110"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
@@ -8175,10 +8197,10 @@
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="108"/>
-      <c r="M43" s="108"/>
+      <c r="J43" s="110"/>
+      <c r="K43" s="110"/>
+      <c r="L43" s="110"/>
+      <c r="M43" s="110"/>
     </row>
     <row r="44" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
@@ -8190,14 +8212,13 @@
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="108"/>
-      <c r="L44" s="108"/>
-      <c r="M44" s="108"/>
+      <c r="J44" s="110"/>
+      <c r="K44" s="110"/>
+      <c r="L44" s="110"/>
+      <c r="M44" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
@@ -8207,6 +8228,8 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
@@ -8223,7 +8246,6 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="J43:J44"/>
     <mergeCell ref="K43:K44"/>
     <mergeCell ref="L43:L44"/>
